--- a/records_maps/Capstone Maps/carnegie-map2019.xlsx
+++ b/records_maps/Capstone Maps/carnegie-map2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Dropbox/gradschool/CUNYGC/MADH/capstone/Maps and Records/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EF3A92-FDB3-E045-B8BA-13D478EDC0AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503E647-6842-6143-98B4-21FE1732FCB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="table">'Drop-down Lists'!$F$1:$F$16</definedName>
     <definedName name="YES_NO">'Drop-down Lists'!$D$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -208,9 +208,6 @@
     <t>{ "relationshipType": "creator", "entityType": "ind"}</t>
   </si>
   <si>
-    <t>ca_objects.date.dates_value</t>
-  </si>
-  <si>
     <t>Setting name</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>{"delimiter": ",", "relationshipType": "is described by", "list": "zinecatsubject"}</t>
+  </si>
+  <si>
+    <t>ca_objects.date.datetext</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1009,7 +1009,7 @@
         <v>54</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1039,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1073,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -1107,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1141,15 +1141,15 @@
         <v>10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1179,15 +1179,15 @@
         <v>11</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1214,13 +1214,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="11" t="s">
@@ -1307,16 +1307,16 @@
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>33</v>
@@ -1348,16 +1348,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="21"/>
@@ -1386,16 +1386,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="E18" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
@@ -1424,16 +1424,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
@@ -1462,16 +1462,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="20"/>
@@ -1500,16 +1500,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="12"/>
@@ -1538,16 +1538,16 @@
         <v>13</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -1576,13 +1576,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="20"/>
@@ -1612,13 +1612,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -1648,13 +1648,13 @@
         <v>13</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -1684,13 +1684,13 @@
         <v>13</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -1720,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>2</v>

--- a/records_maps/Capstone Maps/carnegie-map2019.xlsx
+++ b/records_maps/Capstone Maps/carnegie-map2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfreedma/Documents/GitHub/zinecat.org/records_maps/Capstone Maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503E647-6842-6143-98B4-21FE1732FCB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8705385B-FCBA-B74E-B871-939EA9ABCE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="2940" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
   <si>
     <t>Mapping</t>
   </si>
@@ -310,9 +310,6 @@
     <t>ca_objects.subject</t>
   </si>
   <si>
-    <t>listItemSplitter</t>
-  </si>
-  <si>
     <t>carnegie-map2019</t>
   </si>
   <si>
@@ -322,10 +319,10 @@
     <t>Carnegie Library of Pittsburgh</t>
   </si>
   <si>
-    <t>{"delimiter": ",", "relationshipType": "is described by", "list": "zinecatsubject"}</t>
+    <t>ca_objects.date.datetext</t>
   </si>
   <si>
-    <t>ca_objects.date.datetext</t>
+    <t>{"delimiter": ","}</t>
   </si>
 </sst>
 </file>
@@ -750,8 +747,8 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,7 +757,7 @@
     <col min="2" max="2" width="22.83203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="10" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="27.1640625" style="10" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="10" customWidth="1"/>
@@ -933,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1039,7 +1036,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1107,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1144,12 +1141,14 @@
         <v>89</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="F11" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1182,12 +1181,14 @@
         <v>89</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="F12" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1214,13 +1215,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="11" t="s">
@@ -1307,7 +1308,7 @@
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>56</v>
@@ -1351,7 +1352,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>60</v>
@@ -1389,7 +1390,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>63</v>
